--- a/BPAS Analysis Report/Analysis/DataSettings_As-Is.xlsx
+++ b/BPAS Analysis Report/Analysis/DataSettings_As-Is.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justin\Desktop\BPAS Analysis Report\Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justin\Desktop\OPEN-JIO-REPO\BPAS Analysis Report\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C386DB2B-EB25-42BA-9840-DCE6C96A8CDF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{26E94E72-1CB4-4B31-A910-64EA62C24A5B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="5350" xr2:uid="{26C57986-3BF6-4DB5-A3C1-B113BC3D1962}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="5350" activeTab="1" xr2:uid="{26C57986-3BF6-4DB5-A3C1-B113BC3D1962}"/>
   </bookViews>
   <sheets>
     <sheet name="Costs &amp; Duration" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
   <si>
     <t>s/no</t>
   </si>
@@ -132,9 +132,6 @@
     <t>Discharge Requested</t>
   </si>
   <si>
-    <t>On Mon-Sun; Overall 168 times</t>
-  </si>
-  <si>
     <t>Start Frequency</t>
   </si>
   <si>
@@ -234,6 +231,12 @@
   <si>
     <t>8:00am-12:00pm
 1:30pm-7:00pm</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Mon-Sun, 00:00-24:00</t>
   </si>
 </sst>
 </file>
@@ -242,7 +245,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="166" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -270,6 +273,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -382,7 +386,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -409,19 +413,19 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
@@ -741,7 +745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A24A29E-3A91-4992-963D-FBCE49DCF492}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -1167,36 +1171,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6A941A3-8EA5-4CD5-89CA-1A908C01EA49}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.81640625" customWidth="1"/>
     <col min="2" max="2" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.08984375" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1204,114 +1212,117 @@
         <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+      <c r="D3" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="3" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="13"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="10">
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="10">
         <v>0.7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="13"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="10">
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="10">
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="13"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="10">
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="10">
         <v>0.7</v>
@@ -1345,27 +1356,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="12" t="s">
         <v>51</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>52</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
@@ -1373,13 +1384,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="C3" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="D3" s="1">
         <v>4</v>
@@ -1387,13 +1398,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -1401,13 +1412,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
@@ -1415,13 +1426,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -1429,13 +1440,13 @@
     </row>
     <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>67</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
